--- a/quarterly_averages.xlsx
+++ b/quarterly_averages.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lk9533casperoberg/Desktop/Skola/SF291X/SF291X/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967ADC1D-539E-DD4B-8574-04ED6B11A1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CC5C0C-5E57-144A-9C6F-BA42B897BF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="161">
   <si>
     <t>Date</t>
   </si>
@@ -497,16 +510,23 @@
   </si>
   <si>
     <t>STIBOR_6M_3M_Spread</t>
+  </si>
+  <si>
+    <t>gdp_growth_pct</t>
+  </si>
+  <si>
+    <t>disp_income_msek</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,6 +547,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -564,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -574,6 +600,9 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -876,18 +905,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN61"/>
+  <dimension ref="A1:AR61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AN1" sqref="AN1"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AQ2" sqref="AQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1008,8 +1039,14 @@
       <c r="AN1" s="4" t="s">
         <v>157</v>
       </c>
+      <c r="AP1" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="AQ1" s="6" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>40268</v>
       </c>
@@ -1130,8 +1167,15 @@
       <c r="AN2" t="s">
         <v>155</v>
       </c>
+      <c r="AP2" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="AQ2">
+        <v>388653</v>
+      </c>
+      <c r="AR2" s="7"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>40359</v>
       </c>
@@ -1252,8 +1296,15 @@
       <c r="AN3" t="s">
         <v>153</v>
       </c>
+      <c r="AP3" s="5">
+        <v>5.8</v>
+      </c>
+      <c r="AQ3">
+        <v>467611.64238921</v>
+      </c>
+      <c r="AR3" s="7"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>40451</v>
       </c>
@@ -1374,8 +1425,15 @@
       <c r="AN4" t="s">
         <v>151</v>
       </c>
+      <c r="AP4" s="5">
+        <v>7.3</v>
+      </c>
+      <c r="AQ4">
+        <v>400457.3457686805</v>
+      </c>
+      <c r="AR4" s="7"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>40543</v>
       </c>
@@ -1496,8 +1554,15 @@
       <c r="AN5" t="s">
         <v>149</v>
       </c>
+      <c r="AP5" s="5">
+        <v>7.7</v>
+      </c>
+      <c r="AQ5">
+        <v>399473.71166710102</v>
+      </c>
+      <c r="AR5" s="7"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>40633</v>
       </c>
@@ -1618,8 +1683,15 @@
       <c r="AN6" t="s">
         <v>147</v>
       </c>
+      <c r="AP6" s="5">
+        <v>6.8</v>
+      </c>
+      <c r="AQ6">
+        <v>400494.52059981821</v>
+      </c>
+      <c r="AR6" s="7"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>40724</v>
       </c>
@@ -1740,8 +1812,15 @@
       <c r="AN7" t="s">
         <v>145</v>
       </c>
+      <c r="AP7" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="AQ7">
+        <v>484034.53580674838</v>
+      </c>
+      <c r="AR7" s="7"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>40816</v>
       </c>
@@ -1862,8 +1941,15 @@
       <c r="AN8" t="s">
         <v>143</v>
       </c>
+      <c r="AP8" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="AQ8">
+        <v>407974.04533165199</v>
+      </c>
+      <c r="AR8" s="7"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>40908</v>
       </c>
@@ -1984,8 +2070,15 @@
       <c r="AN9" t="s">
         <v>141</v>
       </c>
+      <c r="AP9" s="5">
+        <v>-0.2</v>
+      </c>
+      <c r="AQ9">
+        <v>403241.45804151276</v>
+      </c>
+      <c r="AR9" s="7"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>40999</v>
       </c>
@@ -2106,8 +2199,15 @@
       <c r="AN10" t="s">
         <v>139</v>
       </c>
+      <c r="AP10" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AQ10">
+        <v>407659.90877871914</v>
+      </c>
+      <c r="AR10" s="7"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>41090</v>
       </c>
@@ -2228,8 +2328,15 @@
       <c r="AN11" t="s">
         <v>137</v>
       </c>
+      <c r="AP11" s="5">
+        <v>-0.9</v>
+      </c>
+      <c r="AQ11">
+        <v>504196.84903244907</v>
+      </c>
+      <c r="AR11" s="7"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>41182</v>
       </c>
@@ -2350,8 +2457,15 @@
       <c r="AN12" t="s">
         <v>135</v>
       </c>
+      <c r="AP12" s="5">
+        <v>-0.9</v>
+      </c>
+      <c r="AQ12">
+        <v>421744.26225852018</v>
+      </c>
+      <c r="AR12" s="7"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>41274</v>
       </c>
@@ -2472,8 +2586,15 @@
       <c r="AN13" t="s">
         <v>133</v>
       </c>
+      <c r="AP13" s="5">
+        <v>-0.1</v>
+      </c>
+      <c r="AQ13">
+        <v>423442.03113401623</v>
+      </c>
+      <c r="AR13" s="7"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>41364</v>
       </c>
@@ -2594,8 +2715,15 @@
       <c r="AN14" t="s">
         <v>131</v>
       </c>
+      <c r="AP14" s="5">
+        <v>-0.4</v>
+      </c>
+      <c r="AQ14">
+        <v>429243.0798689418</v>
+      </c>
+      <c r="AR14" s="7"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>41455</v>
       </c>
@@ -2716,8 +2844,15 @@
       <c r="AN15" t="s">
         <v>129</v>
       </c>
+      <c r="AP15" s="5">
+        <v>1</v>
+      </c>
+      <c r="AQ15">
+        <v>508102.10352656583</v>
+      </c>
+      <c r="AR15" s="7"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>41547</v>
       </c>
@@ -2838,8 +2973,15 @@
       <c r="AN16" t="s">
         <v>127</v>
       </c>
+      <c r="AP16" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="AQ16">
+        <v>434032.79179576406</v>
+      </c>
+      <c r="AR16" s="7"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>41639</v>
       </c>
@@ -2960,8 +3102,15 @@
       <c r="AN17" t="s">
         <v>125</v>
       </c>
+      <c r="AP17" s="5">
+        <v>2.6</v>
+      </c>
+      <c r="AQ17">
+        <v>435777.34824721282</v>
+      </c>
+      <c r="AR17" s="7"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>41729</v>
       </c>
@@ -3082,8 +3231,15 @@
       <c r="AN18" t="s">
         <v>123</v>
       </c>
+      <c r="AP18" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AQ18">
+        <v>439832.75894830097</v>
+      </c>
+      <c r="AR18" s="7"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>41820</v>
       </c>
@@ -3204,8 +3360,15 @@
       <c r="AN19" t="s">
         <v>121</v>
       </c>
+      <c r="AP19" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AQ19">
+        <v>535444.93433336157</v>
+      </c>
+      <c r="AR19" s="7"/>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>41912</v>
       </c>
@@ -3326,8 +3489,15 @@
       <c r="AN20" t="s">
         <v>119</v>
       </c>
+      <c r="AP20" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AQ20">
+        <v>448605.451231307</v>
+      </c>
+      <c r="AR20" s="7"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>42004</v>
       </c>
@@ -3448,8 +3618,15 @@
       <c r="AN21" t="s">
         <v>102</v>
       </c>
+      <c r="AP21" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="AQ21">
+        <v>450430.57591623027</v>
+      </c>
+      <c r="AR21" s="7"/>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>42094</v>
       </c>
@@ -3570,8 +3747,15 @@
       <c r="AN22" t="s">
         <v>116</v>
       </c>
+      <c r="AP22" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="AQ22">
+        <v>452854.14326427347</v>
+      </c>
+      <c r="AR22" s="7"/>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>42185</v>
       </c>
@@ -3692,8 +3876,15 @@
       <c r="AN23" t="s">
         <v>114</v>
       </c>
+      <c r="AP23" s="5">
+        <v>5.2</v>
+      </c>
+      <c r="AQ23">
+        <v>565463.57169432228</v>
+      </c>
+      <c r="AR23" s="7"/>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>42277</v>
       </c>
@@ -3814,8 +4005,15 @@
       <c r="AN24" t="s">
         <v>112</v>
       </c>
+      <c r="AP24" s="5">
+        <v>4</v>
+      </c>
+      <c r="AQ24">
+        <v>459767.34616611723</v>
+      </c>
+      <c r="AR24" s="7"/>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>42369</v>
       </c>
@@ -3936,8 +4134,15 @@
       <c r="AN25" t="s">
         <v>110</v>
       </c>
+      <c r="AP25" s="5">
+        <v>5.2</v>
+      </c>
+      <c r="AQ25">
+        <v>462623.42754046165</v>
+      </c>
+      <c r="AR25" s="7"/>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>42460</v>
       </c>
@@ -4058,8 +4263,15 @@
       <c r="AN26" t="s">
         <v>108</v>
       </c>
+      <c r="AP26" s="5">
+        <v>2.7</v>
+      </c>
+      <c r="AQ26">
+        <v>478685.85628386895</v>
+      </c>
+      <c r="AR26" s="7"/>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>42551</v>
       </c>
@@ -4180,8 +4392,15 @@
       <c r="AN27" t="s">
         <v>106</v>
       </c>
+      <c r="AP27" s="5">
+        <v>3</v>
+      </c>
+      <c r="AQ27">
+        <v>581357.55954828707</v>
+      </c>
+      <c r="AR27" s="7"/>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>42643</v>
       </c>
@@ -4302,8 +4521,15 @@
       <c r="AN28" t="s">
         <v>104</v>
       </c>
+      <c r="AP28" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="AQ28">
+        <v>469160.72251110501</v>
+      </c>
+      <c r="AR28" s="7"/>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>42735</v>
       </c>
@@ -4424,8 +4650,15 @@
       <c r="AN29" t="s">
         <v>102</v>
       </c>
+      <c r="AP29" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="AQ29">
+        <v>474216.9957521605</v>
+      </c>
+      <c r="AR29" s="7"/>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>42825</v>
       </c>
@@ -4546,8 +4779,15 @@
       <c r="AN30" t="s">
         <v>100</v>
       </c>
+      <c r="AP30" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="AQ30">
+        <v>474556.0633706408</v>
+      </c>
+      <c r="AR30" s="7"/>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>42916</v>
       </c>
@@ -4668,8 +4908,15 @@
       <c r="AN31" t="s">
         <v>98</v>
       </c>
+      <c r="AP31" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AQ31">
+        <v>604134.09966329951</v>
+      </c>
+      <c r="AR31" s="7"/>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>43008</v>
       </c>
@@ -4790,8 +5037,15 @@
       <c r="AN32" t="s">
         <v>96</v>
       </c>
+      <c r="AP32" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="AQ32">
+        <v>478491.03391070472</v>
+      </c>
+      <c r="AR32" s="7"/>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>43100</v>
       </c>
@@ -4912,8 +5166,15 @@
       <c r="AN33" t="s">
         <v>94</v>
       </c>
+      <c r="AP33" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AQ33">
+        <v>492262.62036703835</v>
+      </c>
+      <c r="AR33" s="7"/>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>43190</v>
       </c>
@@ -5034,8 +5295,15 @@
       <c r="AN34" t="s">
         <v>92</v>
       </c>
+      <c r="AP34" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="AQ34">
+        <v>509444.46122860012</v>
+      </c>
+      <c r="AR34" s="7"/>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>43281</v>
       </c>
@@ -5156,8 +5424,15 @@
       <c r="AN35" t="s">
         <v>90</v>
       </c>
+      <c r="AP35" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="AQ35">
+        <v>580176.90680981707</v>
+      </c>
+      <c r="AR35" s="7"/>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>43373</v>
       </c>
@@ -5278,8 +5553,15 @@
       <c r="AN36" t="s">
         <v>88</v>
       </c>
+      <c r="AP36" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="AQ36">
+        <v>495223.22328725655</v>
+      </c>
+      <c r="AR36" s="7"/>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>43465</v>
       </c>
@@ -5400,8 +5682,15 @@
       <c r="AN37" t="s">
         <v>86</v>
       </c>
+      <c r="AP37" s="5">
+        <v>1.7</v>
+      </c>
+      <c r="AQ37">
+        <v>511210.85579915193</v>
+      </c>
+      <c r="AR37" s="7"/>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>43555</v>
       </c>
@@ -5522,8 +5811,15 @@
       <c r="AN38" t="s">
         <v>84</v>
       </c>
+      <c r="AP38" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="AQ38">
+        <v>523133.61388785223</v>
+      </c>
+      <c r="AR38" s="7"/>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>43646</v>
       </c>
@@ -5644,8 +5940,15 @@
       <c r="AN39" t="s">
         <v>82</v>
       </c>
+      <c r="AP39" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="AQ39">
+        <v>596773.5718912239</v>
+      </c>
+      <c r="AR39" s="7"/>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>43738</v>
       </c>
@@ -5766,8 +6069,15 @@
       <c r="AN40" t="s">
         <v>80</v>
       </c>
+      <c r="AP40" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="AQ40">
+        <v>511220.93615202646</v>
+      </c>
+      <c r="AR40" s="7"/>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>43830</v>
       </c>
@@ -5888,8 +6198,15 @@
       <c r="AN41" t="s">
         <v>78</v>
       </c>
+      <c r="AP41" s="5">
+        <v>2.7</v>
+      </c>
+      <c r="AQ41">
+        <v>524718.2383573578</v>
+      </c>
+      <c r="AR41" s="7"/>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>43921</v>
       </c>
@@ -6010,8 +6327,15 @@
       <c r="AN42" t="s">
         <v>76</v>
       </c>
+      <c r="AP42" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AQ42">
+        <v>533504.33160207747</v>
+      </c>
+      <c r="AR42" s="7"/>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>44012</v>
       </c>
@@ -6132,8 +6456,15 @@
       <c r="AN43" t="s">
         <v>74</v>
       </c>
+      <c r="AP43" s="5">
+        <v>-6.8</v>
+      </c>
+      <c r="AQ43">
+        <v>564685.44318917033</v>
+      </c>
+      <c r="AR43" s="7"/>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>44104</v>
       </c>
@@ -6254,8 +6585,15 @@
       <c r="AN44" t="s">
         <v>72</v>
       </c>
+      <c r="AP44" s="5">
+        <v>-2.4</v>
+      </c>
+      <c r="AQ44">
+        <v>511469.14063503669</v>
+      </c>
+      <c r="AR44" s="7"/>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44196</v>
       </c>
@@ -6376,8 +6714,15 @@
       <c r="AN45" t="s">
         <v>70</v>
       </c>
+      <c r="AP45" s="5">
+        <v>-0.9</v>
+      </c>
+      <c r="AQ45">
+        <v>533443.50346882979</v>
+      </c>
+      <c r="AR45" s="7"/>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>44286</v>
       </c>
@@ -6498,8 +6843,15 @@
       <c r="AN46" t="s">
         <v>68</v>
       </c>
+      <c r="AP46" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="AQ46">
+        <v>551349.09092697501</v>
+      </c>
+      <c r="AR46" s="7"/>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>44377</v>
       </c>
@@ -6620,8 +6972,15 @@
       <c r="AN47" t="s">
         <v>66</v>
       </c>
+      <c r="AP47" s="5">
+        <v>11</v>
+      </c>
+      <c r="AQ47">
+        <v>603625.97009963519</v>
+      </c>
+      <c r="AR47" s="7"/>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>44469</v>
       </c>
@@ -6742,8 +7101,15 @@
       <c r="AN48" t="s">
         <v>64</v>
       </c>
+      <c r="AP48" s="5">
+        <v>5.9</v>
+      </c>
+      <c r="AQ48">
+        <v>529533.55682390777</v>
+      </c>
+      <c r="AR48" s="7"/>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>44561</v>
       </c>
@@ -6864,8 +7230,15 @@
       <c r="AN49" t="s">
         <v>62</v>
       </c>
+      <c r="AP49" s="5">
+        <v>6.6</v>
+      </c>
+      <c r="AQ49">
+        <v>548310.61378875573</v>
+      </c>
+      <c r="AR49" s="7"/>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>44651</v>
       </c>
@@ -6986,8 +7359,15 @@
       <c r="AN50" t="s">
         <v>60</v>
       </c>
+      <c r="AP50" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="AQ50">
+        <v>561970.38762312953</v>
+      </c>
+      <c r="AR50" s="7"/>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>44742</v>
       </c>
@@ -7108,8 +7488,15 @@
       <c r="AN51" t="s">
         <v>58</v>
       </c>
+      <c r="AP51" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="AQ51">
+        <v>605401.44295088225</v>
+      </c>
+      <c r="AR51" s="7"/>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>44834</v>
       </c>
@@ -7230,8 +7617,15 @@
       <c r="AN52" t="s">
         <v>56</v>
       </c>
+      <c r="AP52" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="AQ52">
+        <v>511883.83732226439</v>
+      </c>
+      <c r="AR52" s="7"/>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>44926</v>
       </c>
@@ -7352,8 +7746,15 @@
       <c r="AN53" t="s">
         <v>54</v>
       </c>
+      <c r="AP53" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AQ53">
+        <v>531576.12819261418</v>
+      </c>
+      <c r="AR53" s="7"/>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>45016</v>
       </c>
@@ -7474,8 +7875,15 @@
       <c r="AN54" t="s">
         <v>52</v>
       </c>
+      <c r="AP54" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="AQ54">
+        <v>535936.63961531955</v>
+      </c>
+      <c r="AR54" s="7"/>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>45107</v>
       </c>
@@ -7596,8 +8004,15 @@
       <c r="AN55" t="s">
         <v>50</v>
       </c>
+      <c r="AP55" s="5">
+        <v>-0.9</v>
+      </c>
+      <c r="AQ55">
+        <v>583754.95404480305</v>
+      </c>
+      <c r="AR55" s="7"/>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>45199</v>
       </c>
@@ -7718,8 +8133,15 @@
       <c r="AN56" t="s">
         <v>48</v>
       </c>
+      <c r="AP56" s="5">
+        <v>-0.7</v>
+      </c>
+      <c r="AQ56">
+        <v>504896.59503644367</v>
+      </c>
+      <c r="AR56" s="7"/>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>45291</v>
       </c>
@@ -7840,8 +8262,15 @@
       <c r="AN57" t="s">
         <v>46</v>
       </c>
+      <c r="AP57" s="5">
+        <v>-0.7</v>
+      </c>
+      <c r="AQ57">
+        <v>514323.00180083705</v>
+      </c>
+      <c r="AR57" s="7"/>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>45382</v>
       </c>
@@ -7962,8 +8391,15 @@
       <c r="AN58" t="s">
         <v>44</v>
       </c>
+      <c r="AP58" s="5">
+        <v>-0.3</v>
+      </c>
+      <c r="AQ58">
+        <v>529826.49988716596</v>
+      </c>
+      <c r="AR58" s="7"/>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>45473</v>
       </c>
@@ -8084,8 +8520,15 @@
       <c r="AN59" t="s">
         <v>42</v>
       </c>
+      <c r="AP59" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="AQ59">
+        <v>595822.36056559312</v>
+      </c>
+      <c r="AR59" s="7"/>
     </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>45565</v>
       </c>
@@ -8206,8 +8649,15 @@
       <c r="AN60" t="s">
         <v>40</v>
       </c>
+      <c r="AP60" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="AQ60">
+        <v>514563.76081698894</v>
+      </c>
+      <c r="AR60" s="7"/>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>45657</v>
       </c>
@@ -8328,6 +8778,13 @@
       <c r="AN61" t="s">
         <v>38</v>
       </c>
+      <c r="AP61" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="AQ61">
+        <v>537180.43099513988</v>
+      </c>
+      <c r="AR61" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/quarterly_averages.xlsx
+++ b/quarterly_averages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lk9533casperoberg/Desktop/Skola/SF291X/SF291X/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CC5C0C-5E57-144A-9C6F-BA42B897BF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB98141-AC1D-3544-B3B4-BF79850AA8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -590,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -601,7 +601,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -908,14 +907,15 @@
   <dimension ref="A1:AR61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AQ2" sqref="AQ2"/>
+      <selection activeCell="AS7" sqref="AS7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.2">
@@ -1039,10 +1039,10 @@
       <c r="AN1" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AO1" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AP1" s="4" t="s">
         <v>160</v>
       </c>
     </row>
@@ -1167,13 +1167,13 @@
       <c r="AN2" t="s">
         <v>155</v>
       </c>
-      <c r="AP2" s="5">
+      <c r="AO2" s="5">
         <v>2.1</v>
       </c>
-      <c r="AQ2">
+      <c r="AP2">
         <v>388653</v>
       </c>
-      <c r="AR2" s="7"/>
+      <c r="AR2" s="6"/>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -1296,13 +1296,13 @@
       <c r="AN3" t="s">
         <v>153</v>
       </c>
-      <c r="AP3" s="5">
+      <c r="AO3" s="5">
         <v>5.8</v>
       </c>
-      <c r="AQ3">
+      <c r="AP3">
         <v>467611.64238921</v>
       </c>
-      <c r="AR3" s="7"/>
+      <c r="AR3" s="6"/>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
@@ -1425,13 +1425,13 @@
       <c r="AN4" t="s">
         <v>151</v>
       </c>
-      <c r="AP4" s="5">
+      <c r="AO4" s="5">
         <v>7.3</v>
       </c>
-      <c r="AQ4">
+      <c r="AP4">
         <v>400457.3457686805</v>
       </c>
-      <c r="AR4" s="7"/>
+      <c r="AR4" s="6"/>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -1554,13 +1554,13 @@
       <c r="AN5" t="s">
         <v>149</v>
       </c>
-      <c r="AP5" s="5">
+      <c r="AO5" s="5">
         <v>7.7</v>
       </c>
-      <c r="AQ5">
+      <c r="AP5">
         <v>399473.71166710102</v>
       </c>
-      <c r="AR5" s="7"/>
+      <c r="AR5" s="6"/>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
@@ -1683,13 +1683,13 @@
       <c r="AN6" t="s">
         <v>147</v>
       </c>
-      <c r="AP6" s="5">
+      <c r="AO6" s="5">
         <v>6.8</v>
       </c>
-      <c r="AQ6">
+      <c r="AP6">
         <v>400494.52059981821</v>
       </c>
-      <c r="AR6" s="7"/>
+      <c r="AR6" s="6"/>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -1812,13 +1812,13 @@
       <c r="AN7" t="s">
         <v>145</v>
       </c>
-      <c r="AP7" s="5">
+      <c r="AO7" s="5">
         <v>3.4</v>
       </c>
-      <c r="AQ7">
+      <c r="AP7">
         <v>484034.53580674838</v>
       </c>
-      <c r="AR7" s="7"/>
+      <c r="AR7" s="6"/>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -1941,13 +1941,13 @@
       <c r="AN8" t="s">
         <v>143</v>
       </c>
-      <c r="AP8" s="5">
+      <c r="AO8" s="5">
         <v>3.1</v>
       </c>
-      <c r="AQ8">
+      <c r="AP8">
         <v>407974.04533165199</v>
       </c>
-      <c r="AR8" s="7"/>
+      <c r="AR8" s="6"/>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -2070,13 +2070,13 @@
       <c r="AN9" t="s">
         <v>141</v>
       </c>
-      <c r="AP9" s="5">
+      <c r="AO9" s="5">
         <v>-0.2</v>
       </c>
-      <c r="AQ9">
+      <c r="AP9">
         <v>403241.45804151276</v>
       </c>
-      <c r="AR9" s="7"/>
+      <c r="AR9" s="6"/>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
@@ -2199,13 +2199,13 @@
       <c r="AN10" t="s">
         <v>139</v>
       </c>
-      <c r="AP10" s="5">
+      <c r="AO10" s="5">
         <v>0.2</v>
       </c>
-      <c r="AQ10">
+      <c r="AP10">
         <v>407659.90877871914</v>
       </c>
-      <c r="AR10" s="7"/>
+      <c r="AR10" s="6"/>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -2328,13 +2328,13 @@
       <c r="AN11" t="s">
         <v>137</v>
       </c>
-      <c r="AP11" s="5">
+      <c r="AO11" s="5">
         <v>-0.9</v>
       </c>
-      <c r="AQ11">
+      <c r="AP11">
         <v>504196.84903244907</v>
       </c>
-      <c r="AR11" s="7"/>
+      <c r="AR11" s="6"/>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -2457,13 +2457,13 @@
       <c r="AN12" t="s">
         <v>135</v>
       </c>
-      <c r="AP12" s="5">
+      <c r="AO12" s="5">
         <v>-0.9</v>
       </c>
-      <c r="AQ12">
+      <c r="AP12">
         <v>421744.26225852018</v>
       </c>
-      <c r="AR12" s="7"/>
+      <c r="AR12" s="6"/>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
@@ -2586,13 +2586,13 @@
       <c r="AN13" t="s">
         <v>133</v>
       </c>
-      <c r="AP13" s="5">
+      <c r="AO13" s="5">
         <v>-0.1</v>
       </c>
-      <c r="AQ13">
+      <c r="AP13">
         <v>423442.03113401623</v>
       </c>
-      <c r="AR13" s="7"/>
+      <c r="AR13" s="6"/>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
@@ -2715,13 +2715,13 @@
       <c r="AN14" t="s">
         <v>131</v>
       </c>
-      <c r="AP14" s="5">
+      <c r="AO14" s="5">
         <v>-0.4</v>
       </c>
-      <c r="AQ14">
+      <c r="AP14">
         <v>429243.0798689418</v>
       </c>
-      <c r="AR14" s="7"/>
+      <c r="AR14" s="6"/>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
@@ -2844,13 +2844,13 @@
       <c r="AN15" t="s">
         <v>129</v>
       </c>
-      <c r="AP15" s="5">
+      <c r="AO15" s="5">
         <v>1</v>
       </c>
-      <c r="AQ15">
+      <c r="AP15">
         <v>508102.10352656583</v>
       </c>
-      <c r="AR15" s="7"/>
+      <c r="AR15" s="6"/>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
@@ -2973,13 +2973,13 @@
       <c r="AN16" t="s">
         <v>127</v>
       </c>
-      <c r="AP16" s="5">
+      <c r="AO16" s="5">
         <v>1.2</v>
       </c>
-      <c r="AQ16">
+      <c r="AP16">
         <v>434032.79179576406</v>
       </c>
-      <c r="AR16" s="7"/>
+      <c r="AR16" s="6"/>
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
@@ -3102,13 +3102,13 @@
       <c r="AN17" t="s">
         <v>125</v>
       </c>
-      <c r="AP17" s="5">
+      <c r="AO17" s="5">
         <v>2.6</v>
       </c>
-      <c r="AQ17">
+      <c r="AP17">
         <v>435777.34824721282</v>
       </c>
-      <c r="AR17" s="7"/>
+      <c r="AR17" s="6"/>
     </row>
     <row r="18" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
@@ -3231,13 +3231,13 @@
       <c r="AN18" t="s">
         <v>123</v>
       </c>
-      <c r="AP18" s="5">
+      <c r="AO18" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AQ18">
+      <c r="AP18">
         <v>439832.75894830097</v>
       </c>
-      <c r="AR18" s="7"/>
+      <c r="AR18" s="6"/>
     </row>
     <row r="19" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
@@ -3360,13 +3360,13 @@
       <c r="AN19" t="s">
         <v>121</v>
       </c>
-      <c r="AP19" s="5">
+      <c r="AO19" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AQ19">
+      <c r="AP19">
         <v>535444.93433336157</v>
       </c>
-      <c r="AR19" s="7"/>
+      <c r="AR19" s="6"/>
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
@@ -3489,13 +3489,13 @@
       <c r="AN20" t="s">
         <v>119</v>
       </c>
-      <c r="AP20" s="5">
+      <c r="AO20" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AQ20">
+      <c r="AP20">
         <v>448605.451231307</v>
       </c>
-      <c r="AR20" s="7"/>
+      <c r="AR20" s="6"/>
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
@@ -3618,13 +3618,13 @@
       <c r="AN21" t="s">
         <v>102</v>
       </c>
-      <c r="AP21" s="5">
+      <c r="AO21" s="5">
         <v>2.4</v>
       </c>
-      <c r="AQ21">
+      <c r="AP21">
         <v>450430.57591623027</v>
       </c>
-      <c r="AR21" s="7"/>
+      <c r="AR21" s="6"/>
     </row>
     <row r="22" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
@@ -3747,13 +3747,13 @@
       <c r="AN22" t="s">
         <v>116</v>
       </c>
-      <c r="AP22" s="5">
+      <c r="AO22" s="5">
         <v>3.2</v>
       </c>
-      <c r="AQ22">
+      <c r="AP22">
         <v>452854.14326427347</v>
       </c>
-      <c r="AR22" s="7"/>
+      <c r="AR22" s="6"/>
     </row>
     <row r="23" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
@@ -3876,13 +3876,13 @@
       <c r="AN23" t="s">
         <v>114</v>
       </c>
-      <c r="AP23" s="5">
+      <c r="AO23" s="5">
         <v>5.2</v>
       </c>
-      <c r="AQ23">
+      <c r="AP23">
         <v>565463.57169432228</v>
       </c>
-      <c r="AR23" s="7"/>
+      <c r="AR23" s="6"/>
     </row>
     <row r="24" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
@@ -4005,13 +4005,13 @@
       <c r="AN24" t="s">
         <v>112</v>
       </c>
-      <c r="AP24" s="5">
+      <c r="AO24" s="5">
         <v>4</v>
       </c>
-      <c r="AQ24">
+      <c r="AP24">
         <v>459767.34616611723</v>
       </c>
-      <c r="AR24" s="7"/>
+      <c r="AR24" s="6"/>
     </row>
     <row r="25" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
@@ -4134,13 +4134,13 @@
       <c r="AN25" t="s">
         <v>110</v>
       </c>
-      <c r="AP25" s="5">
+      <c r="AO25" s="5">
         <v>5.2</v>
       </c>
-      <c r="AQ25">
+      <c r="AP25">
         <v>462623.42754046165</v>
       </c>
-      <c r="AR25" s="7"/>
+      <c r="AR25" s="6"/>
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
@@ -4263,13 +4263,13 @@
       <c r="AN26" t="s">
         <v>108</v>
       </c>
-      <c r="AP26" s="5">
+      <c r="AO26" s="5">
         <v>2.7</v>
       </c>
-      <c r="AQ26">
+      <c r="AP26">
         <v>478685.85628386895</v>
       </c>
-      <c r="AR26" s="7"/>
+      <c r="AR26" s="6"/>
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
@@ -4392,13 +4392,13 @@
       <c r="AN27" t="s">
         <v>106</v>
       </c>
-      <c r="AP27" s="5">
+      <c r="AO27" s="5">
         <v>3</v>
       </c>
-      <c r="AQ27">
+      <c r="AP27">
         <v>581357.55954828707</v>
       </c>
-      <c r="AR27" s="7"/>
+      <c r="AR27" s="6"/>
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
@@ -4521,13 +4521,13 @@
       <c r="AN28" t="s">
         <v>104</v>
       </c>
-      <c r="AP28" s="5">
+      <c r="AO28" s="5">
         <v>1.9</v>
       </c>
-      <c r="AQ28">
+      <c r="AP28">
         <v>469160.72251110501</v>
       </c>
-      <c r="AR28" s="7"/>
+      <c r="AR28" s="6"/>
     </row>
     <row r="29" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
@@ -4650,13 +4650,13 @@
       <c r="AN29" t="s">
         <v>102</v>
       </c>
-      <c r="AP29" s="5">
+      <c r="AO29" s="5">
         <v>1.8</v>
       </c>
-      <c r="AQ29">
+      <c r="AP29">
         <v>474216.9957521605</v>
       </c>
-      <c r="AR29" s="7"/>
+      <c r="AR29" s="6"/>
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
@@ -4779,13 +4779,13 @@
       <c r="AN30" t="s">
         <v>100</v>
       </c>
-      <c r="AP30" s="5">
+      <c r="AO30" s="5">
         <v>3.5</v>
       </c>
-      <c r="AQ30">
+      <c r="AP30">
         <v>474556.0633706408</v>
       </c>
-      <c r="AR30" s="7"/>
+      <c r="AR30" s="6"/>
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
@@ -4908,13 +4908,13 @@
       <c r="AN31" t="s">
         <v>98</v>
       </c>
-      <c r="AP31" s="5">
+      <c r="AO31" s="5">
         <v>0.1</v>
       </c>
-      <c r="AQ31">
+      <c r="AP31">
         <v>604134.09966329951</v>
       </c>
-      <c r="AR31" s="7"/>
+      <c r="AR31" s="6"/>
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
@@ -5037,13 +5037,13 @@
       <c r="AN32" t="s">
         <v>96</v>
       </c>
-      <c r="AP32" s="5">
+      <c r="AO32" s="5">
         <v>1.4</v>
       </c>
-      <c r="AQ32">
+      <c r="AP32">
         <v>478491.03391070472</v>
       </c>
-      <c r="AR32" s="7"/>
+      <c r="AR32" s="6"/>
     </row>
     <row r="33" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
@@ -5166,13 +5166,13 @@
       <c r="AN33" t="s">
         <v>94</v>
       </c>
-      <c r="AP33" s="5">
+      <c r="AO33" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AQ33">
+      <c r="AP33">
         <v>492262.62036703835</v>
       </c>
-      <c r="AR33" s="7"/>
+      <c r="AR33" s="6"/>
     </row>
     <row r="34" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
@@ -5295,13 +5295,13 @@
       <c r="AN34" t="s">
         <v>92</v>
       </c>
-      <c r="AP34" s="5">
+      <c r="AO34" s="5">
         <v>1.6</v>
       </c>
-      <c r="AQ34">
+      <c r="AP34">
         <v>509444.46122860012</v>
       </c>
-      <c r="AR34" s="7"/>
+      <c r="AR34" s="6"/>
     </row>
     <row r="35" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
@@ -5424,13 +5424,13 @@
       <c r="AN35" t="s">
         <v>90</v>
       </c>
-      <c r="AP35" s="5">
+      <c r="AO35" s="5">
         <v>2.8</v>
       </c>
-      <c r="AQ35">
+      <c r="AP35">
         <v>580176.90680981707</v>
       </c>
-      <c r="AR35" s="7"/>
+      <c r="AR35" s="6"/>
     </row>
     <row r="36" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
@@ -5553,13 +5553,13 @@
       <c r="AN36" t="s">
         <v>88</v>
       </c>
-      <c r="AP36" s="5">
+      <c r="AO36" s="5">
         <v>1.5</v>
       </c>
-      <c r="AQ36">
+      <c r="AP36">
         <v>495223.22328725655</v>
       </c>
-      <c r="AR36" s="7"/>
+      <c r="AR36" s="6"/>
     </row>
     <row r="37" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
@@ -5682,13 +5682,13 @@
       <c r="AN37" t="s">
         <v>86</v>
       </c>
-      <c r="AP37" s="5">
+      <c r="AO37" s="5">
         <v>1.7</v>
       </c>
-      <c r="AQ37">
+      <c r="AP37">
         <v>511210.85579915193</v>
       </c>
-      <c r="AR37" s="7"/>
+      <c r="AR37" s="6"/>
     </row>
     <row r="38" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
@@ -5811,13 +5811,13 @@
       <c r="AN38" t="s">
         <v>84</v>
       </c>
-      <c r="AP38" s="5">
+      <c r="AO38" s="5">
         <v>2.5</v>
       </c>
-      <c r="AQ38">
+      <c r="AP38">
         <v>523133.61388785223</v>
       </c>
-      <c r="AR38" s="7"/>
+      <c r="AR38" s="6"/>
     </row>
     <row r="39" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
@@ -5940,13 +5940,13 @@
       <c r="AN39" t="s">
         <v>82</v>
       </c>
-      <c r="AP39" s="5">
+      <c r="AO39" s="5">
         <v>1.9</v>
       </c>
-      <c r="AQ39">
+      <c r="AP39">
         <v>596773.5718912239</v>
       </c>
-      <c r="AR39" s="7"/>
+      <c r="AR39" s="6"/>
     </row>
     <row r="40" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
@@ -6069,13 +6069,13 @@
       <c r="AN40" t="s">
         <v>80</v>
       </c>
-      <c r="AP40" s="5">
+      <c r="AO40" s="5">
         <v>3.2</v>
       </c>
-      <c r="AQ40">
+      <c r="AP40">
         <v>511220.93615202646</v>
       </c>
-      <c r="AR40" s="7"/>
+      <c r="AR40" s="6"/>
     </row>
     <row r="41" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
@@ -6198,13 +6198,13 @@
       <c r="AN41" t="s">
         <v>78</v>
       </c>
-      <c r="AP41" s="5">
+      <c r="AO41" s="5">
         <v>2.7</v>
       </c>
-      <c r="AQ41">
+      <c r="AP41">
         <v>524718.2383573578</v>
       </c>
-      <c r="AR41" s="7"/>
+      <c r="AR41" s="6"/>
     </row>
     <row r="42" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
@@ -6327,13 +6327,13 @@
       <c r="AN42" t="s">
         <v>76</v>
       </c>
-      <c r="AP42" s="5">
+      <c r="AO42" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AQ42">
+      <c r="AP42">
         <v>533504.33160207747</v>
       </c>
-      <c r="AR42" s="7"/>
+      <c r="AR42" s="6"/>
     </row>
     <row r="43" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
@@ -6456,13 +6456,13 @@
       <c r="AN43" t="s">
         <v>74</v>
       </c>
-      <c r="AP43" s="5">
+      <c r="AO43" s="5">
         <v>-6.8</v>
       </c>
-      <c r="AQ43">
+      <c r="AP43">
         <v>564685.44318917033</v>
       </c>
-      <c r="AR43" s="7"/>
+      <c r="AR43" s="6"/>
     </row>
     <row r="44" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
@@ -6585,13 +6585,13 @@
       <c r="AN44" t="s">
         <v>72</v>
       </c>
-      <c r="AP44" s="5">
+      <c r="AO44" s="5">
         <v>-2.4</v>
       </c>
-      <c r="AQ44">
+      <c r="AP44">
         <v>511469.14063503669</v>
       </c>
-      <c r="AR44" s="7"/>
+      <c r="AR44" s="6"/>
     </row>
     <row r="45" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
@@ -6714,13 +6714,13 @@
       <c r="AN45" t="s">
         <v>70</v>
       </c>
-      <c r="AP45" s="5">
+      <c r="AO45" s="5">
         <v>-0.9</v>
       </c>
-      <c r="AQ45">
+      <c r="AP45">
         <v>533443.50346882979</v>
       </c>
-      <c r="AR45" s="7"/>
+      <c r="AR45" s="6"/>
     </row>
     <row r="46" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
@@ -6843,13 +6843,13 @@
       <c r="AN46" t="s">
         <v>68</v>
       </c>
-      <c r="AP46" s="5">
+      <c r="AO46" s="5">
         <v>0.4</v>
       </c>
-      <c r="AQ46">
+      <c r="AP46">
         <v>551349.09092697501</v>
       </c>
-      <c r="AR46" s="7"/>
+      <c r="AR46" s="6"/>
     </row>
     <row r="47" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
@@ -6972,13 +6972,13 @@
       <c r="AN47" t="s">
         <v>66</v>
       </c>
-      <c r="AP47" s="5">
+      <c r="AO47" s="5">
         <v>11</v>
       </c>
-      <c r="AQ47">
+      <c r="AP47">
         <v>603625.97009963519</v>
       </c>
-      <c r="AR47" s="7"/>
+      <c r="AR47" s="6"/>
     </row>
     <row r="48" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
@@ -7101,13 +7101,13 @@
       <c r="AN48" t="s">
         <v>64</v>
       </c>
-      <c r="AP48" s="5">
+      <c r="AO48" s="5">
         <v>5.9</v>
       </c>
-      <c r="AQ48">
+      <c r="AP48">
         <v>529533.55682390777</v>
       </c>
-      <c r="AR48" s="7"/>
+      <c r="AR48" s="6"/>
     </row>
     <row r="49" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
@@ -7230,13 +7230,13 @@
       <c r="AN49" t="s">
         <v>62</v>
       </c>
-      <c r="AP49" s="5">
+      <c r="AO49" s="5">
         <v>6.6</v>
       </c>
-      <c r="AQ49">
+      <c r="AP49">
         <v>548310.61378875573</v>
       </c>
-      <c r="AR49" s="7"/>
+      <c r="AR49" s="6"/>
     </row>
     <row r="50" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
@@ -7359,13 +7359,13 @@
       <c r="AN50" t="s">
         <v>60</v>
       </c>
-      <c r="AP50" s="5">
+      <c r="AO50" s="5">
         <v>2.8</v>
       </c>
-      <c r="AQ50">
+      <c r="AP50">
         <v>561970.38762312953</v>
       </c>
-      <c r="AR50" s="7"/>
+      <c r="AR50" s="6"/>
     </row>
     <row r="51" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
@@ -7488,13 +7488,13 @@
       <c r="AN51" t="s">
         <v>58</v>
       </c>
-      <c r="AP51" s="5">
+      <c r="AO51" s="5">
         <v>1.9</v>
       </c>
-      <c r="AQ51">
+      <c r="AP51">
         <v>605401.44295088225</v>
       </c>
-      <c r="AR51" s="7"/>
+      <c r="AR51" s="6"/>
     </row>
     <row r="52" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
@@ -7617,13 +7617,13 @@
       <c r="AN52" t="s">
         <v>56</v>
       </c>
-      <c r="AP52" s="5">
+      <c r="AO52" s="5">
         <v>2.4</v>
       </c>
-      <c r="AQ52">
+      <c r="AP52">
         <v>511883.83732226439</v>
       </c>
-      <c r="AR52" s="7"/>
+      <c r="AR52" s="6"/>
     </row>
     <row r="53" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
@@ -7746,13 +7746,13 @@
       <c r="AN53" t="s">
         <v>54</v>
       </c>
-      <c r="AP53" s="5">
+      <c r="AO53" s="5">
         <v>-1</v>
       </c>
-      <c r="AQ53">
+      <c r="AP53">
         <v>531576.12819261418</v>
       </c>
-      <c r="AR53" s="7"/>
+      <c r="AR53" s="6"/>
     </row>
     <row r="54" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
@@ -7875,13 +7875,13 @@
       <c r="AN54" t="s">
         <v>52</v>
       </c>
-      <c r="AP54" s="5">
+      <c r="AO54" s="5">
         <v>1.9</v>
       </c>
-      <c r="AQ54">
+      <c r="AP54">
         <v>535936.63961531955</v>
       </c>
-      <c r="AR54" s="7"/>
+      <c r="AR54" s="6"/>
     </row>
     <row r="55" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
@@ -8004,13 +8004,13 @@
       <c r="AN55" t="s">
         <v>50</v>
       </c>
-      <c r="AP55" s="5">
+      <c r="AO55" s="5">
         <v>-0.9</v>
       </c>
-      <c r="AQ55">
+      <c r="AP55">
         <v>583754.95404480305</v>
       </c>
-      <c r="AR55" s="7"/>
+      <c r="AR55" s="6"/>
     </row>
     <row r="56" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
@@ -8133,13 +8133,13 @@
       <c r="AN56" t="s">
         <v>48</v>
       </c>
-      <c r="AP56" s="5">
+      <c r="AO56" s="5">
         <v>-0.7</v>
       </c>
-      <c r="AQ56">
+      <c r="AP56">
         <v>504896.59503644367</v>
       </c>
-      <c r="AR56" s="7"/>
+      <c r="AR56" s="6"/>
     </row>
     <row r="57" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
@@ -8262,13 +8262,13 @@
       <c r="AN57" t="s">
         <v>46</v>
       </c>
-      <c r="AP57" s="5">
+      <c r="AO57" s="5">
         <v>-0.7</v>
       </c>
-      <c r="AQ57">
+      <c r="AP57">
         <v>514323.00180083705</v>
       </c>
-      <c r="AR57" s="7"/>
+      <c r="AR57" s="6"/>
     </row>
     <row r="58" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
@@ -8391,13 +8391,13 @@
       <c r="AN58" t="s">
         <v>44</v>
       </c>
-      <c r="AP58" s="5">
+      <c r="AO58" s="5">
         <v>-0.3</v>
       </c>
-      <c r="AQ58">
+      <c r="AP58">
         <v>529826.49988716596</v>
       </c>
-      <c r="AR58" s="7"/>
+      <c r="AR58" s="6"/>
     </row>
     <row r="59" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
@@ -8520,13 +8520,13 @@
       <c r="AN59" t="s">
         <v>42</v>
       </c>
-      <c r="AP59" s="5">
+      <c r="AO59" s="5">
         <v>0.9</v>
       </c>
-      <c r="AQ59">
+      <c r="AP59">
         <v>595822.36056559312</v>
       </c>
-      <c r="AR59" s="7"/>
+      <c r="AR59" s="6"/>
     </row>
     <row r="60" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
@@ -8649,13 +8649,13 @@
       <c r="AN60" t="s">
         <v>40</v>
       </c>
-      <c r="AP60" s="5">
+      <c r="AO60" s="5">
         <v>1.4</v>
       </c>
-      <c r="AQ60">
+      <c r="AP60">
         <v>514563.76081698894</v>
       </c>
-      <c r="AR60" s="7"/>
+      <c r="AR60" s="6"/>
     </row>
     <row r="61" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
@@ -8778,13 +8778,13 @@
       <c r="AN61" t="s">
         <v>38</v>
       </c>
-      <c r="AP61" s="5">
+      <c r="AO61" s="5">
         <v>1.9</v>
       </c>
-      <c r="AQ61">
+      <c r="AP61">
         <v>537180.43099513988</v>
       </c>
-      <c r="AR61" s="7"/>
+      <c r="AR61" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/quarterly_averages.xlsx
+++ b/quarterly_averages.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lk9533casperoberg/Desktop/Skola/SF291X/SF291X/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviaeskils/SF291X/SF291X_new/SF291X/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB98141-AC1D-3544-B3B4-BF79850AA8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118C19E2-E873-A44B-8B51-AD7856AFD153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="163">
   <si>
     <t>Date</t>
   </si>
@@ -516,6 +516,12 @@
   </si>
   <si>
     <t>disp_income_msek</t>
+  </si>
+  <si>
+    <t>handelsb_nii</t>
+  </si>
+  <si>
+    <t>seb_nii</t>
   </si>
 </sst>
 </file>
@@ -549,9 +555,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -601,7 +607,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -904,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR61"/>
+  <dimension ref="A1:AS61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AS7" sqref="AS7"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AS1" sqref="AS1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -916,9 +922,12 @@
     <col min="39" max="40" width="21.5" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13" customWidth="1"/>
+    <col min="44" max="44" width="11.6640625" customWidth="1"/>
+    <col min="45" max="45" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1045,8 +1054,15 @@
       <c r="AP1" s="4" t="s">
         <v>160</v>
       </c>
+      <c r="AQ1" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AR1" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AS1" s="4"/>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>40268</v>
       </c>
@@ -1173,9 +1189,14 @@
       <c r="AP2">
         <v>388653</v>
       </c>
-      <c r="AR2" s="6"/>
+      <c r="AQ2" s="6">
+        <v>5316</v>
+      </c>
+      <c r="AR2" s="6">
+        <v>3528</v>
+      </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>40359</v>
       </c>
@@ -1302,9 +1323,14 @@
       <c r="AP3">
         <v>467611.64238921</v>
       </c>
-      <c r="AR3" s="6"/>
+      <c r="AQ3" s="6">
+        <v>5082</v>
+      </c>
+      <c r="AR3" s="6">
+        <v>3732</v>
+      </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>40451</v>
       </c>
@@ -1431,9 +1457,14 @@
       <c r="AP4">
         <v>400457.3457686805</v>
       </c>
-      <c r="AR4" s="6"/>
+      <c r="AQ4" s="6">
+        <v>5327</v>
+      </c>
+      <c r="AR4" s="6">
+        <v>4165</v>
+      </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>40543</v>
       </c>
@@ -1560,9 +1591,14 @@
       <c r="AP5">
         <v>399473.71166710102</v>
       </c>
-      <c r="AR5" s="6"/>
+      <c r="AQ5" s="6">
+        <v>5612</v>
+      </c>
+      <c r="AR5" s="6">
+        <v>4505</v>
+      </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>40633</v>
       </c>
@@ -1689,9 +1725,14 @@
       <c r="AP6">
         <v>400494.52059981821</v>
       </c>
-      <c r="AR6" s="6"/>
+      <c r="AQ6" s="6">
+        <v>5507</v>
+      </c>
+      <c r="AR6" s="6">
+        <v>4246</v>
+      </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>40724</v>
       </c>
@@ -1818,9 +1859,14 @@
       <c r="AP7">
         <v>484034.53580674838</v>
       </c>
-      <c r="AR7" s="6"/>
+      <c r="AQ7" s="6">
+        <v>5683</v>
+      </c>
+      <c r="AR7" s="6">
+        <v>4215</v>
+      </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>40816</v>
       </c>
@@ -1947,9 +1993,14 @@
       <c r="AP8">
         <v>407974.04533165199</v>
       </c>
-      <c r="AR8" s="6"/>
+      <c r="AQ8" s="6">
+        <v>6066</v>
+      </c>
+      <c r="AR8" s="6">
+        <v>4122</v>
+      </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>40908</v>
       </c>
@@ -2076,9 +2127,14 @@
       <c r="AP9">
         <v>403241.45804151276</v>
       </c>
-      <c r="AR9" s="6"/>
+      <c r="AQ9" s="6">
+        <v>6357</v>
+      </c>
+      <c r="AR9" s="6">
+        <v>4318</v>
+      </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>40999</v>
       </c>
@@ -2205,9 +2261,14 @@
       <c r="AP10">
         <v>407659.90877871914</v>
       </c>
-      <c r="AR10" s="6"/>
+      <c r="AQ10" s="6">
+        <v>6560</v>
+      </c>
+      <c r="AR10" s="6">
+        <v>4181</v>
+      </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>41090</v>
       </c>
@@ -2334,9 +2395,14 @@
       <c r="AP11">
         <v>504196.84903244907</v>
       </c>
-      <c r="AR11" s="6"/>
+      <c r="AQ11" s="6">
+        <v>6575</v>
+      </c>
+      <c r="AR11" s="6">
+        <v>4530</v>
+      </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>41182</v>
       </c>
@@ -2463,9 +2529,14 @@
       <c r="AP12">
         <v>421744.26225852018</v>
       </c>
-      <c r="AR12" s="6"/>
+      <c r="AQ12" s="6">
+        <v>6462</v>
+      </c>
+      <c r="AR12" s="6">
+        <v>4466</v>
+      </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>41274</v>
       </c>
@@ -2592,9 +2663,14 @@
       <c r="AP13">
         <v>423442.03113401623</v>
       </c>
-      <c r="AR13" s="6"/>
+      <c r="AQ13" s="6">
+        <v>6484</v>
+      </c>
+      <c r="AR13" s="6">
+        <v>4458</v>
+      </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>41364</v>
       </c>
@@ -2721,9 +2797,14 @@
       <c r="AP14">
         <v>429243.0798689418</v>
       </c>
-      <c r="AR14" s="6"/>
+      <c r="AQ14" s="6">
+        <v>6541</v>
+      </c>
+      <c r="AR14" s="6">
+        <v>4459</v>
+      </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>41455</v>
       </c>
@@ -2850,9 +2931,14 @@
       <c r="AP15">
         <v>508102.10352656583</v>
       </c>
-      <c r="AR15" s="6"/>
+      <c r="AQ15" s="6">
+        <v>6673</v>
+      </c>
+      <c r="AR15" s="6">
+        <v>4677</v>
+      </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>41547</v>
       </c>
@@ -2979,7 +3065,12 @@
       <c r="AP16">
         <v>434032.79179576406</v>
       </c>
-      <c r="AR16" s="6"/>
+      <c r="AQ16" s="6">
+        <v>6683</v>
+      </c>
+      <c r="AR16" s="6">
+        <v>4759</v>
+      </c>
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
@@ -3108,7 +3199,12 @@
       <c r="AP17">
         <v>435777.34824721282</v>
       </c>
-      <c r="AR17" s="6"/>
+      <c r="AQ17" s="6">
+        <v>6772</v>
+      </c>
+      <c r="AR17" s="6">
+        <v>4932</v>
+      </c>
     </row>
     <row r="18" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
@@ -3237,7 +3333,12 @@
       <c r="AP18">
         <v>439832.75894830097</v>
       </c>
-      <c r="AR18" s="6"/>
+      <c r="AQ18" s="6">
+        <v>6653</v>
+      </c>
+      <c r="AR18" s="6">
+        <v>4818</v>
+      </c>
     </row>
     <row r="19" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
@@ -3366,7 +3467,12 @@
       <c r="AP19">
         <v>535444.93433336157</v>
       </c>
-      <c r="AR19" s="6"/>
+      <c r="AQ19" s="6">
+        <v>6704</v>
+      </c>
+      <c r="AR19" s="6">
+        <v>4943</v>
+      </c>
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
@@ -3495,7 +3601,12 @@
       <c r="AP20">
         <v>448605.451231307</v>
       </c>
-      <c r="AR20" s="6"/>
+      <c r="AQ20" s="6">
+        <v>7004</v>
+      </c>
+      <c r="AR20" s="6">
+        <v>5172</v>
+      </c>
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
@@ -3624,7 +3735,12 @@
       <c r="AP21">
         <v>450430.57591623027</v>
       </c>
-      <c r="AR21" s="6"/>
+      <c r="AQ21" s="6">
+        <v>6883</v>
+      </c>
+      <c r="AR21" s="6">
+        <v>5010</v>
+      </c>
     </row>
     <row r="22" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
@@ -3753,7 +3869,12 @@
       <c r="AP22">
         <v>452854.14326427347</v>
       </c>
-      <c r="AR22" s="6"/>
+      <c r="AQ22" s="6">
+        <v>6916</v>
+      </c>
+      <c r="AR22" s="6">
+        <v>4946</v>
+      </c>
     </row>
     <row r="23" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
@@ -3882,7 +4003,12 @@
       <c r="AP23">
         <v>565463.57169432228</v>
       </c>
-      <c r="AR23" s="6"/>
+      <c r="AQ23" s="6">
+        <v>7019</v>
+      </c>
+      <c r="AR23" s="6">
+        <v>4632</v>
+      </c>
     </row>
     <row r="24" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
@@ -4011,7 +4137,12 @@
       <c r="AP24">
         <v>459767.34616611723</v>
       </c>
-      <c r="AR24" s="6"/>
+      <c r="AQ24" s="6">
+        <v>6834</v>
+      </c>
+      <c r="AR24" s="6">
+        <v>4683</v>
+      </c>
     </row>
     <row r="25" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
@@ -4140,7 +4271,12 @@
       <c r="AP25">
         <v>462623.42754046165</v>
       </c>
-      <c r="AR25" s="6"/>
+      <c r="AQ25" s="6">
+        <v>6971</v>
+      </c>
+      <c r="AR25" s="6">
+        <v>4677</v>
+      </c>
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
@@ -4269,7 +4405,12 @@
       <c r="AP26">
         <v>478685.85628386895</v>
       </c>
-      <c r="AR26" s="6"/>
+      <c r="AQ26" s="6">
+        <v>6795</v>
+      </c>
+      <c r="AR26" s="6">
+        <v>4636</v>
+      </c>
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
@@ -4398,7 +4539,12 @@
       <c r="AP27">
         <v>581357.55954828707</v>
       </c>
-      <c r="AR27" s="6"/>
+      <c r="AQ27" s="6">
+        <v>6808</v>
+      </c>
+      <c r="AR27" s="6">
+        <v>4647</v>
+      </c>
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
@@ -4527,7 +4673,12 @@
       <c r="AP28">
         <v>469160.72251110501</v>
       </c>
-      <c r="AR28" s="6"/>
+      <c r="AQ28" s="6">
+        <v>7041</v>
+      </c>
+      <c r="AR28" s="6">
+        <v>4657</v>
+      </c>
     </row>
     <row r="29" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
@@ -4656,7 +4807,12 @@
       <c r="AP29">
         <v>474216.9957521605</v>
       </c>
-      <c r="AR29" s="6"/>
+      <c r="AQ29" s="6">
+        <v>7299</v>
+      </c>
+      <c r="AR29" s="6">
+        <v>4657</v>
+      </c>
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
@@ -4785,7 +4941,12 @@
       <c r="AP30">
         <v>474556.0633706408</v>
       </c>
-      <c r="AR30" s="6"/>
+      <c r="AQ30" s="6">
+        <v>7081</v>
+      </c>
+      <c r="AR30" s="6">
+        <v>4716</v>
+      </c>
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
@@ -4914,7 +5075,12 @@
       <c r="AP31">
         <v>604134.09966329951</v>
       </c>
-      <c r="AR31" s="6"/>
+      <c r="AQ31" s="6">
+        <v>7321</v>
+      </c>
+      <c r="AR31" s="6">
+        <v>4913</v>
+      </c>
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
@@ -5043,7 +5209,12 @@
       <c r="AP32">
         <v>478491.03391070472</v>
       </c>
-      <c r="AR32" s="6"/>
+      <c r="AQ32" s="6">
+        <v>7587</v>
+      </c>
+      <c r="AR32" s="6">
+        <v>5080</v>
+      </c>
     </row>
     <row r="33" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
@@ -5172,7 +5343,12 @@
       <c r="AP33">
         <v>492262.62036703835</v>
       </c>
-      <c r="AR33" s="6"/>
+      <c r="AQ33" s="6">
+        <v>7777</v>
+      </c>
+      <c r="AR33" s="6">
+        <v>5184</v>
+      </c>
     </row>
     <row r="34" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
@@ -5301,7 +5477,12 @@
       <c r="AP34">
         <v>509444.46122860012</v>
       </c>
-      <c r="AR34" s="6"/>
+      <c r="AQ34" s="6">
+        <v>7648</v>
+      </c>
+      <c r="AR34" s="6">
+        <v>4988</v>
+      </c>
     </row>
     <row r="35" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
@@ -5430,7 +5611,12 @@
       <c r="AP35">
         <v>580176.90680981707</v>
       </c>
-      <c r="AR35" s="6"/>
+      <c r="AQ35" s="6">
+        <v>7904</v>
+      </c>
+      <c r="AR35" s="6">
+        <v>5500</v>
+      </c>
     </row>
     <row r="36" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
@@ -5559,7 +5745,12 @@
       <c r="AP36">
         <v>495223.22328725655</v>
       </c>
-      <c r="AR36" s="6"/>
+      <c r="AQ36" s="6">
+        <v>7862</v>
+      </c>
+      <c r="AR36" s="6">
+        <v>5319</v>
+      </c>
     </row>
     <row r="37" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
@@ -5688,7 +5879,12 @@
       <c r="AP37">
         <v>511210.85579915193</v>
       </c>
-      <c r="AR37" s="6"/>
+      <c r="AQ37" s="6">
+        <v>7872</v>
+      </c>
+      <c r="AR37" s="6">
+        <v>5215</v>
+      </c>
     </row>
     <row r="38" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
@@ -5817,7 +6013,12 @@
       <c r="AP38">
         <v>523133.61388785223</v>
       </c>
-      <c r="AR38" s="6"/>
+      <c r="AQ38" s="6">
+        <v>7934</v>
+      </c>
+      <c r="AR38" s="6">
+        <v>5345</v>
+      </c>
     </row>
     <row r="39" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
@@ -5946,7 +6147,12 @@
       <c r="AP39">
         <v>596773.5718912239</v>
       </c>
-      <c r="AR39" s="6"/>
+      <c r="AQ39" s="6">
+        <v>8064</v>
+      </c>
+      <c r="AR39" s="6">
+        <v>5692</v>
+      </c>
     </row>
     <row r="40" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
@@ -6075,7 +6281,12 @@
       <c r="AP40">
         <v>511220.93615202646</v>
       </c>
-      <c r="AR40" s="6"/>
+      <c r="AQ40" s="6">
+        <v>8047</v>
+      </c>
+      <c r="AR40" s="6">
+        <v>5983</v>
+      </c>
     </row>
     <row r="41" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
@@ -6204,7 +6415,12 @@
       <c r="AP41">
         <v>524718.2383573578</v>
       </c>
-      <c r="AR41" s="6"/>
+      <c r="AQ41" s="6">
+        <v>8090</v>
+      </c>
+      <c r="AR41" s="6">
+        <v>5930</v>
+      </c>
     </row>
     <row r="42" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
@@ -6333,7 +6549,12 @@
       <c r="AP42">
         <v>533504.33160207747</v>
       </c>
-      <c r="AR42" s="6"/>
+      <c r="AQ42" s="6">
+        <v>8230</v>
+      </c>
+      <c r="AR42" s="6">
+        <v>6201</v>
+      </c>
     </row>
     <row r="43" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
@@ -6462,7 +6683,12 @@
       <c r="AP43">
         <v>564685.44318917033</v>
       </c>
-      <c r="AR43" s="6"/>
+      <c r="AQ43" s="6">
+        <v>7622</v>
+      </c>
+      <c r="AR43" s="6">
+        <v>6047</v>
+      </c>
     </row>
     <row r="44" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
@@ -6591,7 +6817,12 @@
       <c r="AP44">
         <v>511469.14063503669</v>
       </c>
-      <c r="AR44" s="6"/>
+      <c r="AQ44" s="6">
+        <v>7893</v>
+      </c>
+      <c r="AR44" s="6">
+        <v>6336</v>
+      </c>
     </row>
     <row r="45" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
@@ -6720,7 +6951,12 @@
       <c r="AP45">
         <v>533443.50346882979</v>
       </c>
-      <c r="AR45" s="6"/>
+      <c r="AQ45" s="6">
+        <v>7861</v>
+      </c>
+      <c r="AR45" s="6">
+        <v>6559</v>
+      </c>
     </row>
     <row r="46" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
@@ -6849,7 +7085,12 @@
       <c r="AP46">
         <v>551349.09092697501</v>
       </c>
-      <c r="AR46" s="6"/>
+      <c r="AQ46" s="6">
+        <v>7429</v>
+      </c>
+      <c r="AR46" s="6">
+        <v>6396</v>
+      </c>
     </row>
     <row r="47" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
@@ -6978,7 +7219,12 @@
       <c r="AP47">
         <v>603625.97009963519</v>
       </c>
-      <c r="AR47" s="6"/>
+      <c r="AQ47" s="6">
+        <v>7571</v>
+      </c>
+      <c r="AR47" s="6">
+        <v>6570</v>
+      </c>
     </row>
     <row r="48" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
@@ -7107,7 +7353,12 @@
       <c r="AP48">
         <v>529533.55682390777</v>
       </c>
-      <c r="AR48" s="6"/>
+      <c r="AQ48" s="6">
+        <v>7586</v>
+      </c>
+      <c r="AR48" s="6">
+        <v>6639</v>
+      </c>
     </row>
     <row r="49" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
@@ -7236,7 +7487,12 @@
       <c r="AP49">
         <v>548310.61378875573</v>
       </c>
-      <c r="AR49" s="6"/>
+      <c r="AQ49" s="6">
+        <v>7735</v>
+      </c>
+      <c r="AR49" s="6">
+        <v>6716</v>
+      </c>
     </row>
     <row r="50" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
@@ -7365,7 +7621,12 @@
       <c r="AP50">
         <v>561970.38762312953</v>
       </c>
-      <c r="AR50" s="6"/>
+      <c r="AQ50" s="6">
+        <v>8013</v>
+      </c>
+      <c r="AR50" s="6">
+        <v>7062</v>
+      </c>
     </row>
     <row r="51" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
@@ -7494,7 +7755,12 @@
       <c r="AP51">
         <v>605401.44295088225</v>
       </c>
-      <c r="AR51" s="6"/>
+      <c r="AQ51" s="6">
+        <v>8389</v>
+      </c>
+      <c r="AR51" s="6">
+        <v>7742</v>
+      </c>
     </row>
     <row r="52" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
@@ -7623,7 +7889,12 @@
       <c r="AP52">
         <v>511883.83732226439</v>
       </c>
-      <c r="AR52" s="6"/>
+      <c r="AQ52" s="6">
+        <v>9578</v>
+      </c>
+      <c r="AR52" s="6">
+        <v>8925</v>
+      </c>
     </row>
     <row r="53" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
@@ -7752,7 +8023,12 @@
       <c r="AP53">
         <v>531576.12819261418</v>
       </c>
-      <c r="AR53" s="6"/>
+      <c r="AQ53" s="6">
+        <v>10630</v>
+      </c>
+      <c r="AR53" s="6">
+        <v>8925</v>
+      </c>
     </row>
     <row r="54" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
@@ -7881,7 +8157,12 @@
       <c r="AP54">
         <v>535936.63961531955</v>
       </c>
-      <c r="AR54" s="6"/>
+      <c r="AQ54" s="6">
+        <v>11485</v>
+      </c>
+      <c r="AR54" s="6">
+        <v>11297</v>
+      </c>
     </row>
     <row r="55" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
@@ -8010,7 +8291,12 @@
       <c r="AP55">
         <v>583754.95404480305</v>
       </c>
-      <c r="AR55" s="6"/>
+      <c r="AQ55" s="6">
+        <v>11687</v>
+      </c>
+      <c r="AR55" s="6">
+        <v>11881</v>
+      </c>
     </row>
     <row r="56" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
@@ -8139,7 +8425,12 @@
       <c r="AP56">
         <v>504896.59503644367</v>
       </c>
-      <c r="AR56" s="6"/>
+      <c r="AQ56" s="6">
+        <v>12184</v>
+      </c>
+      <c r="AR56" s="6">
+        <v>12248</v>
+      </c>
     </row>
     <row r="57" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
@@ -8268,7 +8559,12 @@
       <c r="AP57">
         <v>514323.00180083705</v>
       </c>
-      <c r="AR57" s="6"/>
+      <c r="AQ57" s="6">
+        <v>12222</v>
+      </c>
+      <c r="AR57" s="6">
+        <v>12100</v>
+      </c>
     </row>
     <row r="58" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
@@ -8397,7 +8693,12 @@
       <c r="AP58">
         <v>529826.49988716596</v>
       </c>
-      <c r="AR58" s="6"/>
+      <c r="AQ58" s="6">
+        <v>11587</v>
+      </c>
+      <c r="AR58" s="6">
+        <v>11765</v>
+      </c>
     </row>
     <row r="59" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
@@ -8526,7 +8827,12 @@
       <c r="AP59">
         <v>595822.36056559312</v>
       </c>
-      <c r="AR59" s="6"/>
+      <c r="AQ59" s="6">
+        <v>11746</v>
+      </c>
+      <c r="AR59" s="6">
+        <v>11611</v>
+      </c>
     </row>
     <row r="60" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
@@ -8655,7 +8961,12 @@
       <c r="AP60">
         <v>514563.76081698894</v>
       </c>
-      <c r="AR60" s="6"/>
+      <c r="AQ60" s="6">
+        <v>11763</v>
+      </c>
+      <c r="AR60" s="6">
+        <v>11055</v>
+      </c>
     </row>
     <row r="61" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
@@ -8784,7 +9095,12 @@
       <c r="AP61">
         <v>537180.43099513988</v>
       </c>
-      <c r="AR61" s="6"/>
+      <c r="AQ61" s="6">
+        <v>11745</v>
+      </c>
+      <c r="AR61" s="6">
+        <v>10820</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/quarterly_averages.xlsx
+++ b/quarterly_averages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviaeskils/SF291X/SF291X_new/SF291X/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118C19E2-E873-A44B-8B51-AD7856AFD153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFAC5D1-A8B7-894E-A782-12DF1E0B14C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,8 +32,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={F664C98A-C499-3945-8DD4-19E9B2941E8F}</author>
+  </authors>
+  <commentList>
+    <comment ref="AS1" authorId="0" shapeId="0" xr:uid="{F664C98A-C499-3945-8DD4-19E9B2941E8F}">
+      <text>
+        <t>[Trådad kommentar]
+I din version av Excel kan du läsa den här trådade kommentaren, men eventuella ändringar i den tas bort om filen öppnas i en senare version av Excel. Läs mer: https://go.microsoft.com/fwlink/?linkid=870924
+Kommentar:
+    Mn EUR</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="164">
   <si>
     <t>Date</t>
   </si>
@@ -522,6 +540,9 @@
   </si>
   <si>
     <t>seb_nii</t>
+  </si>
+  <si>
+    <t>nordea_nii</t>
   </si>
 </sst>
 </file>
@@ -532,7 +553,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -558,6 +579,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -623,6 +650,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Olivia Eskils" id="{0B376645-C69C-B74A-9831-92C1F701817B}" userId="S::oeskils@UG.KTH.SE::ec964f8c-8611-4151-95bf-cca7f7399433" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -908,8 +941,16 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="AS1" dT="2025-04-14T09:58:28.22" personId="{0B376645-C69C-B74A-9831-92C1F701817B}" id="{F664C98A-C499-3945-8DD4-19E9B2941E8F}">
+    <text>Mn EUR</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
@@ -1060,7 +1101,9 @@
       <c r="AR1" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="AS1" s="4"/>
+      <c r="AS1" s="4" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
@@ -1195,6 +1238,9 @@
       <c r="AR2" s="6">
         <v>3528</v>
       </c>
+      <c r="AS2" s="6">
+        <v>1235</v>
+      </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -1329,6 +1375,9 @@
       <c r="AR3" s="6">
         <v>3732</v>
       </c>
+      <c r="AS3" s="6">
+        <v>1249</v>
+      </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
@@ -1463,6 +1512,9 @@
       <c r="AR4" s="6">
         <v>4165</v>
       </c>
+      <c r="AS4" s="6">
+        <v>1310</v>
+      </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -1597,6 +1649,9 @@
       <c r="AR5" s="6">
         <v>4505</v>
       </c>
+      <c r="AS5" s="6">
+        <v>1365</v>
+      </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
@@ -1731,6 +1786,9 @@
       <c r="AR6" s="6">
         <v>4246</v>
       </c>
+      <c r="AS6" s="6">
+        <v>1324</v>
+      </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -1865,6 +1923,9 @@
       <c r="AR7" s="6">
         <v>4215</v>
       </c>
+      <c r="AS7" s="6">
+        <v>1326</v>
+      </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -1999,6 +2060,9 @@
       <c r="AR8" s="6">
         <v>4122</v>
       </c>
+      <c r="AS8" s="6">
+        <v>1379</v>
+      </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -2133,6 +2197,9 @@
       <c r="AR9" s="6">
         <v>4318</v>
       </c>
+      <c r="AS9" s="6">
+        <v>1427</v>
+      </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
@@ -2267,6 +2334,9 @@
       <c r="AR10" s="6">
         <v>4181</v>
       </c>
+      <c r="AS10" s="6">
+        <v>1373</v>
+      </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -2401,6 +2471,9 @@
       <c r="AR11" s="6">
         <v>4530</v>
       </c>
+      <c r="AS11" s="6">
+        <v>1415</v>
+      </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -2535,6 +2608,9 @@
       <c r="AR12" s="6">
         <v>4466</v>
       </c>
+      <c r="AS12" s="6">
+        <v>1393</v>
+      </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
@@ -2669,6 +2745,9 @@
       <c r="AR13" s="6">
         <v>4458</v>
       </c>
+      <c r="AS13" s="6">
+        <v>1382</v>
+      </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
@@ -2803,6 +2882,9 @@
       <c r="AR14" s="6">
         <v>4459</v>
       </c>
+      <c r="AS14" s="6">
+        <v>1358</v>
+      </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
@@ -2937,6 +3019,9 @@
       <c r="AR15" s="6">
         <v>4677</v>
       </c>
+      <c r="AS15" s="6">
+        <v>1391</v>
+      </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
@@ -3071,8 +3156,11 @@
       <c r="AR16" s="6">
         <v>4759</v>
       </c>
+      <c r="AS16" s="6">
+        <v>1386</v>
+      </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>41639</v>
       </c>
@@ -3205,8 +3293,11 @@
       <c r="AR17" s="6">
         <v>4932</v>
       </c>
+      <c r="AS17" s="6">
+        <v>1390</v>
+      </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>41729</v>
       </c>
@@ -3339,8 +3430,11 @@
       <c r="AR18" s="6">
         <v>4818</v>
       </c>
+      <c r="AS18" s="6">
+        <v>1362</v>
+      </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>41820</v>
       </c>
@@ -3473,8 +3567,11 @@
       <c r="AR19" s="6">
         <v>4943</v>
       </c>
+      <c r="AS19" s="6">
+        <v>1368</v>
+      </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>41912</v>
       </c>
@@ -3607,8 +3704,11 @@
       <c r="AR20" s="6">
         <v>5172</v>
       </c>
+      <c r="AS20" s="6">
+        <v>1396</v>
+      </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>42004</v>
       </c>
@@ -3741,8 +3841,11 @@
       <c r="AR21" s="6">
         <v>5010</v>
       </c>
+      <c r="AS21" s="6">
+        <v>1356</v>
+      </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>42094</v>
       </c>
@@ -3875,8 +3978,11 @@
       <c r="AR22" s="6">
         <v>4946</v>
       </c>
+      <c r="AS22" s="6">
+        <v>1288</v>
+      </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>42185</v>
       </c>
@@ -4009,8 +4115,11 @@
       <c r="AR23" s="6">
         <v>4632</v>
       </c>
+      <c r="AS23" s="6">
+        <v>1309</v>
+      </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>42277</v>
       </c>
@@ -4143,8 +4252,11 @@
       <c r="AR24" s="6">
         <v>4683</v>
       </c>
+      <c r="AS24" s="6">
+        <v>1272</v>
+      </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>42369</v>
       </c>
@@ -4277,8 +4389,11 @@
       <c r="AR25" s="6">
         <v>4677</v>
       </c>
+      <c r="AS25" s="6">
+        <v>1241</v>
+      </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>42460</v>
       </c>
@@ -4411,8 +4526,11 @@
       <c r="AR26" s="6">
         <v>4636</v>
       </c>
+      <c r="AS26" s="6">
+        <v>1168</v>
+      </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>42551</v>
       </c>
@@ -4545,8 +4663,11 @@
       <c r="AR27" s="6">
         <v>4647</v>
       </c>
+      <c r="AS27" s="6">
+        <v>1172</v>
+      </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>42643</v>
       </c>
@@ -4679,8 +4800,11 @@
       <c r="AR28" s="6">
         <v>4657</v>
       </c>
+      <c r="AS28" s="6">
+        <v>1178</v>
+      </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>42735</v>
       </c>
@@ -4813,8 +4937,11 @@
       <c r="AR29" s="6">
         <v>4657</v>
       </c>
+      <c r="AS29" s="6">
+        <v>1209</v>
+      </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>42825</v>
       </c>
@@ -4947,8 +5074,11 @@
       <c r="AR30" s="6">
         <v>4716</v>
       </c>
+      <c r="AS30" s="6">
+        <v>1197</v>
+      </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>42916</v>
       </c>
@@ -5081,8 +5211,11 @@
       <c r="AR31" s="6">
         <v>4913</v>
       </c>
+      <c r="AS31" s="6">
+        <v>1175</v>
+      </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>43008</v>
       </c>
@@ -5215,8 +5348,11 @@
       <c r="AR32" s="6">
         <v>5080</v>
       </c>
+      <c r="AS32" s="6">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>43100</v>
       </c>
@@ -5349,8 +5485,11 @@
       <c r="AR33" s="6">
         <v>5184</v>
       </c>
+      <c r="AS33" s="6">
+        <v>1109</v>
+      </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>43190</v>
       </c>
@@ -5483,8 +5622,11 @@
       <c r="AR34" s="6">
         <v>4988</v>
       </c>
+      <c r="AS34" s="6">
+        <v>1053</v>
+      </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>43281</v>
       </c>
@@ -5617,8 +5759,11 @@
       <c r="AR35" s="6">
         <v>5500</v>
       </c>
+      <c r="AS35" s="6">
+        <v>1073</v>
+      </c>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>43373</v>
       </c>
@@ -5751,8 +5896,11 @@
       <c r="AR36" s="6">
         <v>5319</v>
       </c>
+      <c r="AS36" s="6">
+        <v>1072</v>
+      </c>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>43465</v>
       </c>
@@ -5885,8 +6033,11 @@
       <c r="AR37" s="6">
         <v>5215</v>
       </c>
+      <c r="AS37" s="6">
+        <v>1126</v>
+      </c>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>43555</v>
       </c>
@@ -6019,8 +6170,11 @@
       <c r="AR38" s="6">
         <v>5345</v>
       </c>
+      <c r="AS38" s="6">
+        <v>1056</v>
+      </c>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>43646</v>
       </c>
@@ -6153,8 +6307,11 @@
       <c r="AR39" s="6">
         <v>5692</v>
       </c>
+      <c r="AS39" s="6">
+        <v>1071</v>
+      </c>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>43738</v>
       </c>
@@ -6287,8 +6444,11 @@
       <c r="AR40" s="6">
         <v>5983</v>
       </c>
+      <c r="AS40" s="6">
+        <v>1083</v>
+      </c>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>43830</v>
       </c>
@@ -6421,8 +6581,11 @@
       <c r="AR41" s="6">
         <v>5930</v>
       </c>
+      <c r="AS41" s="6">
+        <v>1108</v>
+      </c>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>43921</v>
       </c>
@@ -6555,8 +6718,11 @@
       <c r="AR42" s="6">
         <v>6201</v>
       </c>
+      <c r="AS42" s="6">
+        <v>1109</v>
+      </c>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>44012</v>
       </c>
@@ -6689,8 +6855,11 @@
       <c r="AR43" s="6">
         <v>6047</v>
       </c>
+      <c r="AS43" s="6">
+        <v>1091</v>
+      </c>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>44104</v>
       </c>
@@ -6823,8 +6992,11 @@
       <c r="AR44" s="6">
         <v>6336</v>
       </c>
+      <c r="AS44" s="6">
+        <v>1146</v>
+      </c>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44196</v>
       </c>
@@ -6957,8 +7129,11 @@
       <c r="AR45" s="6">
         <v>6559</v>
       </c>
+      <c r="AS45" s="6">
+        <v>1169</v>
+      </c>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>44286</v>
       </c>
@@ -7091,8 +7266,11 @@
       <c r="AR46" s="6">
         <v>6396</v>
       </c>
+      <c r="AS46" s="6">
+        <v>1212</v>
+      </c>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>44377</v>
       </c>
@@ -7225,8 +7403,11 @@
       <c r="AR47" s="6">
         <v>6570</v>
       </c>
+      <c r="AS47" s="6">
+        <v>1232</v>
+      </c>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>44469</v>
       </c>
@@ -7359,8 +7540,11 @@
       <c r="AR48" s="6">
         <v>6639</v>
       </c>
+      <c r="AS48" s="6">
+        <v>1226</v>
+      </c>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>44561</v>
       </c>
@@ -7493,8 +7677,11 @@
       <c r="AR49" s="6">
         <v>6716</v>
       </c>
+      <c r="AS49" s="6">
+        <v>1255</v>
+      </c>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>44651</v>
       </c>
@@ -7627,8 +7814,11 @@
       <c r="AR50" s="6">
         <v>7062</v>
       </c>
+      <c r="AS50" s="6">
+        <v>1308</v>
+      </c>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>44742</v>
       </c>
@@ -7761,8 +7951,11 @@
       <c r="AR51" s="6">
         <v>7742</v>
       </c>
+      <c r="AS51" s="6">
+        <v>1308</v>
+      </c>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>44834</v>
       </c>
@@ -7895,8 +8088,11 @@
       <c r="AR52" s="6">
         <v>8925</v>
       </c>
+      <c r="AS52" s="6">
+        <v>1407</v>
+      </c>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>44926</v>
       </c>
@@ -8029,8 +8225,11 @@
       <c r="AR53" s="6">
         <v>8925</v>
       </c>
+      <c r="AS53" s="6">
+        <v>1641</v>
+      </c>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>45016</v>
       </c>
@@ -8163,8 +8362,11 @@
       <c r="AR54" s="6">
         <v>11297</v>
       </c>
+      <c r="AS54" s="6">
+        <v>1765</v>
+      </c>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>45107</v>
       </c>
@@ -8297,8 +8499,11 @@
       <c r="AR55" s="6">
         <v>11881</v>
       </c>
+      <c r="AS55" s="6">
+        <v>1831</v>
+      </c>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>45199</v>
       </c>
@@ -8431,8 +8636,11 @@
       <c r="AR56" s="6">
         <v>12248</v>
       </c>
+      <c r="AS56" s="6">
+        <v>1909</v>
+      </c>
     </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>45291</v>
       </c>
@@ -8565,8 +8773,11 @@
       <c r="AR57" s="6">
         <v>12100</v>
       </c>
+      <c r="AS57" s="6">
+        <v>1946</v>
+      </c>
     </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>45382</v>
       </c>
@@ -8699,8 +8910,11 @@
       <c r="AR58" s="6">
         <v>11765</v>
       </c>
+      <c r="AS58" s="6">
+        <v>1954</v>
+      </c>
     </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>45473</v>
       </c>
@@ -8833,8 +9047,11 @@
       <c r="AR59" s="6">
         <v>11611</v>
       </c>
+      <c r="AS59" s="6">
+        <v>1904</v>
+      </c>
     </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>45565</v>
       </c>
@@ -8967,8 +9184,11 @@
       <c r="AR60" s="6">
         <v>11055</v>
       </c>
+      <c r="AS60" s="6">
+        <v>1882</v>
+      </c>
     </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>45657</v>
       </c>
@@ -9100,9 +9320,13 @@
       </c>
       <c r="AR61" s="6">
         <v>10820</v>
+      </c>
+      <c r="AS61" s="6">
+        <v>1854</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/quarterly_averages.xlsx
+++ b/quarterly_averages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviaeskils/SF291X/SF291X_new/SF291X/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFAC5D1-A8B7-894E-A782-12DF1E0B14C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE17A26-C82C-B645-B526-54B3B08C04D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5460" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="165">
   <si>
     <t>Date</t>
   </si>
@@ -543,6 +543,9 @@
   </si>
   <si>
     <t>nordea_nii</t>
+  </si>
+  <si>
+    <t>eur_sek</t>
   </si>
 </sst>
 </file>
@@ -553,7 +556,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -579,12 +582,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -951,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS61"/>
+  <dimension ref="A1:AT61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AS1" sqref="AS1"/>
+    <sheetView tabSelected="1" topLeftCell="AE49" workbookViewId="0">
+      <selection activeCell="AT63" sqref="AT63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -968,7 +965,7 @@
     <col min="45" max="45" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1104,8 +1101,11 @@
       <c r="AS1" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="AT1" s="4" t="s">
+        <v>164</v>
+      </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>40268</v>
       </c>
@@ -1241,8 +1241,11 @@
       <c r="AS2" s="6">
         <v>1235</v>
       </c>
+      <c r="AT2">
+        <v>9.9464047619047626</v>
+      </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>40359</v>
       </c>
@@ -1378,8 +1381,11 @@
       <c r="AS3" s="6">
         <v>1249</v>
       </c>
+      <c r="AT3">
+        <v>9.631269841269841</v>
+      </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>40451</v>
       </c>
@@ -1515,8 +1521,11 @@
       <c r="AS4" s="6">
         <v>1310</v>
       </c>
+      <c r="AT4">
+        <v>9.3803606060606057</v>
+      </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>40543</v>
       </c>
@@ -1652,8 +1661,11 @@
       <c r="AS5" s="6">
         <v>1365</v>
       </c>
+      <c r="AT5">
+        <v>9.2138969696969699</v>
+      </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>40633</v>
       </c>
@@ -1789,8 +1801,11 @@
       <c r="AS6" s="6">
         <v>1324</v>
       </c>
+      <c r="AT6">
+        <v>8.8641562500000006</v>
+      </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>40724</v>
       </c>
@@ -1926,8 +1941,11 @@
       <c r="AS7" s="6">
         <v>1326</v>
       </c>
+      <c r="AT7">
+        <v>9.0152873015872999</v>
+      </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>40816</v>
       </c>
@@ -2063,8 +2081,11 @@
       <c r="AS8" s="6">
         <v>1379</v>
       </c>
+      <c r="AT8">
+        <v>9.1450712121212128</v>
+      </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>40908</v>
       </c>
@@ -2200,8 +2221,11 @@
       <c r="AS9" s="6">
         <v>1427</v>
       </c>
+      <c r="AT9">
+        <v>9.0910359374999992</v>
+      </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>40999</v>
       </c>
@@ -2337,8 +2361,11 @@
       <c r="AS10" s="6">
         <v>1373</v>
       </c>
+      <c r="AT10">
+        <v>8.8528907692307701</v>
+      </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>41090</v>
       </c>
@@ -2474,8 +2501,11 @@
       <c r="AS11" s="6">
         <v>1415</v>
       </c>
+      <c r="AT11">
+        <v>8.9133419354838708</v>
+      </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>41182</v>
       </c>
@@ -2611,8 +2641,11 @@
       <c r="AS12" s="6">
         <v>1393</v>
       </c>
+      <c r="AT12">
+        <v>8.4354169230769234</v>
+      </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>41274</v>
       </c>
@@ -2748,8 +2781,11 @@
       <c r="AS13" s="6">
         <v>1382</v>
       </c>
+      <c r="AT13">
+        <v>8.6230265624999998</v>
+      </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>41364</v>
       </c>
@@ -2885,8 +2921,11 @@
       <c r="AS14" s="6">
         <v>1358</v>
       </c>
+      <c r="AT14">
+        <v>8.496509677419354</v>
+      </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>41455</v>
       </c>
@@ -3022,8 +3061,11 @@
       <c r="AS15" s="6">
         <v>1391</v>
       </c>
+      <c r="AT15">
+        <v>8.5652365079365094</v>
+      </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>41547</v>
       </c>
@@ -3159,8 +3201,11 @@
       <c r="AS16" s="6">
         <v>1386</v>
       </c>
+      <c r="AT16">
+        <v>8.6798000000000002</v>
+      </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>41639</v>
       </c>
@@ -3296,8 +3341,11 @@
       <c r="AS17" s="6">
         <v>1390</v>
       </c>
+      <c r="AT17">
+        <v>8.857528125</v>
+      </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>41729</v>
       </c>
@@ -3433,8 +3481,11 @@
       <c r="AS18" s="6">
         <v>1362</v>
       </c>
+      <c r="AT18">
+        <v>8.8569190476190478</v>
+      </c>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>41820</v>
       </c>
@@ -3570,8 +3621,11 @@
       <c r="AS19" s="6">
         <v>1368</v>
       </c>
+      <c r="AT19">
+        <v>9.0516838709677412</v>
+      </c>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>41912</v>
       </c>
@@ -3707,8 +3761,11 @@
       <c r="AS20" s="6">
         <v>1396</v>
       </c>
+      <c r="AT20">
+        <v>9.2051515151515151</v>
+      </c>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>42004</v>
       </c>
@@ -3844,8 +3901,11 @@
       <c r="AS21" s="6">
         <v>1356</v>
       </c>
+      <c r="AT21">
+        <v>9.2717718750000007</v>
+      </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>42094</v>
       </c>
@@ -3981,8 +4041,11 @@
       <c r="AS22" s="6">
         <v>1288</v>
       </c>
+      <c r="AT22">
+        <v>9.3799952380952387</v>
+      </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>42185</v>
       </c>
@@ -4118,8 +4181,11 @@
       <c r="AS23" s="6">
         <v>1309</v>
       </c>
+      <c r="AT23">
+        <v>9.299512903225807</v>
+      </c>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>42277</v>
       </c>
@@ -4255,8 +4321,11 @@
       <c r="AS24" s="6">
         <v>1272</v>
       </c>
+      <c r="AT24">
+        <v>9.4293303030303015</v>
+      </c>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>42369</v>
       </c>
@@ -4392,8 +4461,11 @@
       <c r="AS25" s="6">
         <v>1241</v>
       </c>
+      <c r="AT25">
+        <v>9.3021646153846156</v>
+      </c>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>42460</v>
       </c>
@@ -4529,8 +4601,11 @@
       <c r="AS26" s="6">
         <v>1168</v>
       </c>
+      <c r="AT26">
+        <v>9.326653225806453</v>
+      </c>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>42551</v>
       </c>
@@ -4666,8 +4741,11 @@
       <c r="AS27" s="6">
         <v>1172</v>
       </c>
+      <c r="AT27">
+        <v>9.2782323076923081</v>
+      </c>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>42643</v>
       </c>
@@ -4803,8 +4881,11 @@
       <c r="AS28" s="6">
         <v>1178</v>
       </c>
+      <c r="AT28">
+        <v>9.5105893939393944</v>
+      </c>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>42735</v>
       </c>
@@ -4940,8 +5021,11 @@
       <c r="AS29" s="6">
         <v>1209</v>
       </c>
+      <c r="AT29">
+        <v>9.7573593750000001</v>
+      </c>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>42825</v>
       </c>
@@ -5077,8 +5161,11 @@
       <c r="AS30" s="6">
         <v>1197</v>
       </c>
+      <c r="AT30">
+        <v>9.5062769230769231</v>
+      </c>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>42916</v>
       </c>
@@ -5214,8 +5301,11 @@
       <c r="AS31" s="6">
         <v>1175</v>
       </c>
+      <c r="AT31">
+        <v>9.6917677419354842</v>
+      </c>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>43008</v>
       </c>
@@ -5351,8 +5441,11 @@
       <c r="AS32" s="6">
         <v>1185</v>
       </c>
+      <c r="AT32">
+        <v>9.5567646153846155</v>
+      </c>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>43100</v>
       </c>
@@ -5488,8 +5581,11 @@
       <c r="AS33" s="6">
         <v>1109</v>
       </c>
+      <c r="AT33">
+        <v>9.7930380952380958</v>
+      </c>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>43190</v>
       </c>
@@ -5625,8 +5721,11 @@
       <c r="AS34" s="6">
         <v>1053</v>
       </c>
+      <c r="AT34">
+        <v>9.9711952380952376</v>
+      </c>
     </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>43281</v>
       </c>
@@ -5762,8 +5861,11 @@
       <c r="AS35" s="6">
         <v>1073</v>
       </c>
+      <c r="AT35">
+        <v>10.330344444444441</v>
+      </c>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>43373</v>
       </c>
@@ -5899,8 +6001,11 @@
       <c r="AS36" s="6">
         <v>1072</v>
       </c>
+      <c r="AT36">
+        <v>10.40546307692308</v>
+      </c>
     </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>43465</v>
       </c>
@@ -6036,8 +6141,11 @@
       <c r="AS37" s="6">
         <v>1126</v>
       </c>
+      <c r="AT37">
+        <v>10.320371874999999</v>
+      </c>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>43555</v>
       </c>
@@ -6173,8 +6281,11 @@
       <c r="AS38" s="6">
         <v>1056</v>
       </c>
+      <c r="AT38">
+        <v>10.418688888888891</v>
+      </c>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>43646</v>
       </c>
@@ -6310,8 +6421,11 @@
       <c r="AS39" s="6">
         <v>1071</v>
       </c>
+      <c r="AT39">
+        <v>10.61907741935484</v>
+      </c>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>43738</v>
       </c>
@@ -6447,8 +6561,11 @@
       <c r="AS40" s="6">
         <v>1083</v>
       </c>
+      <c r="AT40">
+        <v>10.662187878787879</v>
+      </c>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>43830</v>
       </c>
@@ -6584,8 +6701,11 @@
       <c r="AS41" s="6">
         <v>1108</v>
       </c>
+      <c r="AT41">
+        <v>10.652359375</v>
+      </c>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>43921</v>
       </c>
@@ -6721,8 +6841,11 @@
       <c r="AS42" s="6">
         <v>1109</v>
       </c>
+      <c r="AT42">
+        <v>10.668850000000001</v>
+      </c>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>44012</v>
       </c>
@@ -6858,8 +6981,11 @@
       <c r="AS43" s="6">
         <v>1091</v>
       </c>
+      <c r="AT43">
+        <v>10.650670967741929</v>
+      </c>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>44104</v>
       </c>
@@ -6995,8 +7121,11 @@
       <c r="AS44" s="6">
         <v>1146</v>
       </c>
+      <c r="AT44">
+        <v>10.36415606060606</v>
+      </c>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44196</v>
       </c>
@@ -7132,8 +7261,11 @@
       <c r="AS45" s="6">
         <v>1169</v>
       </c>
+      <c r="AT45">
+        <v>10.26768153846154</v>
+      </c>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>44286</v>
       </c>
@@ -7269,8 +7401,11 @@
       <c r="AS46" s="6">
         <v>1212</v>
       </c>
+      <c r="AT46">
+        <v>10.12016825396825</v>
+      </c>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>44377</v>
       </c>
@@ -7406,8 +7541,11 @@
       <c r="AS47" s="6">
         <v>1232</v>
       </c>
+      <c r="AT47">
+        <v>10.14136666666667</v>
+      </c>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>44469</v>
       </c>
@@ -7543,8 +7681,11 @@
       <c r="AS48" s="6">
         <v>1226</v>
       </c>
+      <c r="AT48">
+        <v>10.194848484848491</v>
+      </c>
     </row>
-    <row r="49" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>44561</v>
       </c>
@@ -7680,8 +7821,11 @@
       <c r="AS49" s="6">
         <v>1255</v>
       </c>
+      <c r="AT49">
+        <v>10.12804242424242</v>
+      </c>
     </row>
-    <row r="50" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>44651</v>
       </c>
@@ -7817,8 +7961,11 @@
       <c r="AS50" s="6">
         <v>1308</v>
       </c>
+      <c r="AT50">
+        <v>10.4806734375</v>
+      </c>
     </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>44742</v>
       </c>
@@ -7954,8 +8101,11 @@
       <c r="AS51" s="6">
         <v>1308</v>
       </c>
+      <c r="AT51">
+        <v>10.478549206349211</v>
+      </c>
     </row>
-    <row r="52" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>44834</v>
       </c>
@@ -8091,8 +8241,11 @@
       <c r="AS52" s="6">
         <v>1407</v>
       </c>
+      <c r="AT52">
+        <v>10.619298484848491</v>
+      </c>
     </row>
-    <row r="53" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>44926</v>
       </c>
@@ -8228,8 +8381,11 @@
       <c r="AS53" s="6">
         <v>1641</v>
       </c>
+      <c r="AT53">
+        <v>10.937740625</v>
+      </c>
     </row>
-    <row r="54" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>45016</v>
       </c>
@@ -8365,8 +8521,11 @@
       <c r="AS54" s="6">
         <v>1765</v>
       </c>
+      <c r="AT54">
+        <v>11.202999999999999</v>
+      </c>
     </row>
-    <row r="55" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>45107</v>
       </c>
@@ -8502,8 +8661,11 @@
       <c r="AS55" s="6">
         <v>1831</v>
       </c>
+      <c r="AT55">
+        <v>11.469095161290319</v>
+      </c>
     </row>
-    <row r="56" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>45199</v>
       </c>
@@ -8639,8 +8801,11 @@
       <c r="AS56" s="6">
         <v>1909</v>
       </c>
+      <c r="AT56">
+        <v>11.76409846153846</v>
+      </c>
     </row>
-    <row r="57" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>45291</v>
       </c>
@@ -8776,8 +8941,11 @@
       <c r="AS57" s="6">
         <v>1946</v>
       </c>
+      <c r="AT57">
+        <v>11.47838253968254</v>
+      </c>
     </row>
-    <row r="58" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>45382</v>
       </c>
@@ -8913,8 +9081,11 @@
       <c r="AS58" s="6">
         <v>1954</v>
       </c>
+      <c r="AT58">
+        <v>11.27923015873016</v>
+      </c>
     </row>
-    <row r="59" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>45473</v>
       </c>
@@ -9050,8 +9221,11 @@
       <c r="AS59" s="6">
         <v>1904</v>
       </c>
+      <c r="AT59">
+        <v>11.50352222222222</v>
+      </c>
     </row>
-    <row r="60" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>45565</v>
       </c>
@@ -9187,8 +9361,11 @@
       <c r="AS60" s="6">
         <v>1882</v>
       </c>
+      <c r="AT60">
+        <v>11.45124393939394</v>
+      </c>
     </row>
-    <row r="61" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>45657</v>
       </c>
@@ -9323,6 +9500,9 @@
       </c>
       <c r="AS61" s="6">
         <v>1854</v>
+      </c>
+      <c r="AT61">
+        <v>11.494209375000001</v>
       </c>
     </row>
   </sheetData>
